--- a/燃尽图模板.xlsx
+++ b/燃尽图模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软工素材\团队编程\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软工素材\团队编程\EasyRoll-Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388250B0-FC68-461D-B475-4C318869C6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F87FB3E-25AD-4E9E-8E44-F2CE7981D75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,21 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -378,9 +386,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$A$4:$A$11</c:f>
+              <c:f>Sheet5!$A$4:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -398,19 +406,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$4:$B$11</c:f>
+              <c:f>Sheet5!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -418,18 +423,15 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.400000000000006</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.8</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.200000000000003</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -482,9 +484,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$A$4:$A$11</c:f>
+              <c:f>Sheet5!$A$4:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -502,24 +504,24 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$C$4:$C$11</c:f>
+              <c:f>Sheet5!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86</c:v>
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -572,7 +574,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Alpha</a:t>
+                  <a:t>Beta</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
@@ -1353,16 +1355,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>100718</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>432971</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>58143</xdr:rowOff>
+      <xdr:rowOff>54356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>385971</xdr:colOff>
+      <xdr:colOff>108624</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>169461</xdr:rowOff>
+      <xdr:rowOff>158101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1391,27 +1393,26 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lenovo" refreshedDate="44871.967074652777" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{785AB453-C0AE-4A2C-B175-8148055AAD22}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lenovo" refreshedDate="44889.937073958332" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="6" xr:uid="{B7913B26-2E37-4074-AE28-EB65DAE1AE77}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C8" sheet="Sheet1"/>
+    <worksheetSource ref="A1:C7" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="轮次" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6" count="7">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="6">
         <n v="0"/>
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
         <n v="5"/>
-        <n v="6"/>
       </sharedItems>
     </cacheField>
     <cacheField name="理想工作量" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="100"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="100"/>
     </cacheField>
     <cacheField name="实际工作量" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="86" maxValue="100"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="64" maxValue="100"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1423,7 +1424,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
   <r>
     <x v="0"/>
     <n v="100"/>
@@ -1432,30 +1433,25 @@
   <r>
     <x v="1"/>
     <n v="83"/>
-    <n v="86"/>
+    <n v="85"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="66.400000000000006"/>
-    <m/>
+    <n v="61"/>
+    <n v="64"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="49.8"/>
+    <n v="37"/>
     <m/>
   </r>
   <r>
     <x v="4"/>
-    <n v="33.200000000000003"/>
+    <n v="21"/>
     <m/>
   </r>
   <r>
     <x v="5"/>
-    <n v="16.600000000000001"/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
     <n v="0"/>
     <m/>
   </r>
@@ -1463,18 +1459,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9944BD9D-A795-408B-81A0-1F5B05AC47FB}" name="数据透视表3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA18F150-418E-4B52-9F83-E5EE3C151EB2}" name="数据透视表3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
-        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1484,7 +1479,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -1502,9 +1497,6 @@
     </i>
     <i>
       <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -1820,13 +1812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AA7B98-AA50-4E6D-A321-2EE810684E6C}">
-  <dimension ref="A3:C11"/>
+  <dimension ref="A3:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C11"/>
-      <pivotSelection pane="bottomRight" showHeader="1" click="1" r:id="rId1">
-        <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-      </pivotSelection>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1854,7 @@
         <v>83</v>
       </c>
       <c r="C5" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1873,16 +1862,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C6" s="1">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>49.8</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -1891,7 +1882,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>33.200000000000003</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1900,28 +1891,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>16.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>6</v>
+      <c r="A10" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>349</v>
-      </c>
-      <c r="C11" s="1">
-        <v>186</v>
+        <v>302</v>
+      </c>
+      <c r="C10" s="1">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -1932,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1975,7 +1957,7 @@
         <v>83</v>
       </c>
       <c r="C3">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1983,7 +1965,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>66.400000000000006</v>
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1991,7 +1976,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>49.8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1999,7 +1984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>33.200000000000003</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2007,14 +1992,6 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
         <v>0</v>
       </c>
     </row>
